--- a/Hacktoberfest_Expected_Ouput.xlsx
+++ b/Hacktoberfest_Expected_Ouput.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anshul.choudhary@ibm.com/PycharmProjects/Manipulating_Excel_Sheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34AA9F7F-151A-5E4D-86AC-782E90412DA0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5605A0CA-A1D1-B945-AD42-E7A2C560501C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13560" yWindow="7940" windowWidth="26040" windowHeight="14940" xr2:uid="{240A953C-158B-9649-AC89-6A8615E9C240}"/>
+    <workbookView xWindow="19420" yWindow="8580" windowWidth="26040" windowHeight="14940" xr2:uid="{240A953C-158B-9649-AC89-6A8615E9C240}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,10 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t>Source</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
   <si>
     <t>Destination</t>
   </si>
@@ -50,25 +47,75 @@
     <t>(abcd fg)</t>
   </si>
   <si>
-    <t>1.1.2.3</t>
-  </si>
-  <si>
     <t>1.4.3.2</t>
   </si>
   <si>
     <t>3.3.5.6</t>
   </si>
   <si>
-    <t>8.8.8.8</t>
-  </si>
-  <si>
     <t>156.78.90.3</t>
   </si>
   <si>
-    <t>56.78.3.4</t>
-  </si>
-  <si>
-    <t>3.3.5.7</t>
+    <t>Source Color</t>
+  </si>
+  <si>
+    <t>Green</t>
+  </si>
+  <si>
+    <t>Blue</t>
+  </si>
+  <si>
+    <t>Red</t>
+  </si>
+  <si>
+    <t>Yellow</t>
+  </si>
+  <si>
+    <t>Brown</t>
+  </si>
+  <si>
+    <t>Grey</t>
+  </si>
+  <si>
+    <t>5.7.8.9</t>
+  </si>
+  <si>
+    <t>fsfgsg</t>
+  </si>
+  <si>
+    <t>gsgs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consider 5 Colors above only </t>
+  </si>
+  <si>
+    <t>fsd</t>
+  </si>
+  <si>
+    <t>Dest color</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Source </t>
+  </si>
+  <si>
+    <t>9.208.46.246
+9.208.48.81
+9.208.48.48</t>
+  </si>
+  <si>
+    <t>9.208.46.246,9.208.48.81,
+9.208.48.48</t>
+  </si>
+  <si>
+    <t>9.208.46.246,
+9.208.48.81,
+9.208.48.48</t>
+  </si>
+  <si>
+    <t>9.214.16.167</t>
+  </si>
+  <si>
+    <t>1.2.3.4</t>
   </si>
 </sst>
 </file>
@@ -90,7 +137,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -99,24 +146,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -124,6 +153,42 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA58034"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -140,19 +205,36 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFA58034"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -461,10 +543,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B463CD9-5D49-5A46-B22F-46878949AC3C}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -472,54 +554,113 @@
     <col min="1" max="1" width="22.5" customWidth="1"/>
     <col min="2" max="2" width="24.83203125" customWidth="1"/>
     <col min="3" max="3" width="20.5" customWidth="1"/>
+    <col min="6" max="6" width="35.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
-        <v>4</v>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
